--- a/PythonResources/Data/Consumption/Sympheny/futu_1657_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_1657_hea.xlsx
@@ -383,7 +383,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>87.64963474556453</v>
+        <v>87.64963474556451</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -391,7 +391,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>89.66449813636127</v>
+        <v>89.66449813636126</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -447,7 +447,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>14.9695704340558</v>
+        <v>14.96957043405579</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -471,7 +471,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>19.60595426567828</v>
+        <v>19.60595426567827</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -535,7 +535,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>75.05930292467313</v>
+        <v>75.05930292467312</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -591,7 +591,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>85.15061799889924</v>
+        <v>85.15061799889922</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -607,7 +607,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>32.31078894137466</v>
+        <v>32.31078894137465</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -647,7 +647,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>36.14738190849033</v>
+        <v>36.14738190849032</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -719,7 +719,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>55.99854871221656</v>
+        <v>55.99854871221655</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -735,7 +735,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>67.82396512220184</v>
+        <v>67.82396512220183</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -751,7 +751,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>73.71938213591346</v>
+        <v>73.71938213591345</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -879,7 +879,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>53.7419017145242</v>
+        <v>53.74190171452419</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -975,7 +975,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>60.56694006286961</v>
+        <v>60.5669400628696</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1039,7 +1039,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>6.552306439767162</v>
+        <v>6.552306439767161</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1119,7 +1119,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>49.47683888888564</v>
+        <v>49.47683888888563</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1151,7 +1151,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>62.09530552948852</v>
+        <v>62.09530552948851</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1255,7 +1255,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>32.2316597609361</v>
+        <v>32.23165976093609</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1271,7 +1271,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>68.79227183393893</v>
+        <v>68.79227183393891</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1287,7 +1287,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>54.1823874856322</v>
+        <v>54.18238748563219</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1335,7 +1335,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>78.3326133554817</v>
+        <v>78.33261335548168</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1343,7 +1343,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>80.5063212492329</v>
+        <v>80.50632124923288</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1351,7 +1351,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>81.42304745816558</v>
+        <v>81.42304745816557</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1383,7 +1383,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>34.71045460593376</v>
+        <v>34.71045460593375</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1447,7 +1447,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>42.13716779665091</v>
+        <v>42.1371677966509</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1479,7 +1479,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>70.43493500563577</v>
+        <v>70.43493500563575</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1487,7 +1487,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>71.64238768492051</v>
+        <v>71.64238768492049</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1663,7 +1663,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>61.00508126566832</v>
+        <v>61.00508126566831</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1767,7 +1767,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>39.8391977825073</v>
+        <v>39.83919778250729</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1847,7 +1847,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>55.93788300721366</v>
+        <v>55.93788300721365</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1951,7 +1951,7 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>35.28897683625125</v>
+        <v>35.28897683625124</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1975,7 +1975,7 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>46.04527009719995</v>
+        <v>46.04527009719994</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2055,7 +2055,7 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>64.12951160883692</v>
+        <v>64.12951160883691</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2079,7 +2079,7 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>82.65160125223395</v>
+        <v>82.65160125223393</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2087,7 +2087,7 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>84.17176072977034</v>
+        <v>84.17176072977033</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2223,7 +2223,7 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>74.79700434507123</v>
+        <v>74.79700434507122</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2239,7 +2239,7 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>57.80767623387304</v>
+        <v>57.80767623387303</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2311,7 +2311,7 @@
         <v>246</v>
       </c>
       <c r="B246">
-        <v>96.84679008083486</v>
+        <v>96.84679008083484</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2351,7 +2351,7 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>25.50878597666804</v>
+        <v>25.50878597666803</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2367,7 +2367,7 @@
         <v>253</v>
       </c>
       <c r="B253">
-        <v>19.76321618502396</v>
+        <v>19.76321618502395</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2407,7 +2407,7 @@
         <v>258</v>
       </c>
       <c r="B258">
-        <v>24.41999776093727</v>
+        <v>24.41999776093726</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2503,7 +2503,7 @@
         <v>270</v>
       </c>
       <c r="B270">
-        <v>80.30761908502051</v>
+        <v>80.30761908502049</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2775,7 +2775,7 @@
         <v>304</v>
       </c>
       <c r="B304">
-        <v>0.505606155898553</v>
+        <v>0.5056061558985528</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -3063,7 +3063,7 @@
         <v>340</v>
       </c>
       <c r="B340">
-        <v>42.73825649694533</v>
+        <v>42.73825649694532</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3079,7 +3079,7 @@
         <v>342</v>
       </c>
       <c r="B342">
-        <v>47.41596334501906</v>
+        <v>47.41596334501905</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3103,7 +3103,7 @@
         <v>345</v>
       </c>
       <c r="B345">
-        <v>3.413808686742815</v>
+        <v>3.413808686742814</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3159,7 +3159,7 @@
         <v>352</v>
       </c>
       <c r="B352">
-        <v>0.4236224635434282</v>
+        <v>0.4236224635434281</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3231,7 +3231,7 @@
         <v>361</v>
       </c>
       <c r="B361">
-        <v>35.58937465087913</v>
+        <v>35.58937465087912</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3271,7 +3271,7 @@
         <v>366</v>
       </c>
       <c r="B366">
-        <v>52.35831334100399</v>
+        <v>52.35831334100398</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3359,7 +3359,7 @@
         <v>377</v>
       </c>
       <c r="B377">
-        <v>0.796707757180094</v>
+        <v>0.7967077571800939</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3431,7 +3431,7 @@
         <v>386</v>
       </c>
       <c r="B386">
-        <v>49.46658140253249</v>
+        <v>49.46658140253248</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3607,7 +3607,7 @@
         <v>408</v>
       </c>
       <c r="B408">
-        <v>60.31724353793014</v>
+        <v>60.31724353793013</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3623,7 +3623,7 @@
         <v>410</v>
       </c>
       <c r="B410">
-        <v>72.26223293168925</v>
+        <v>72.26223293168924</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3759,7 +3759,7 @@
         <v>427</v>
       </c>
       <c r="B427">
-        <v>83.26294743888151</v>
+        <v>83.2629474388815</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3767,7 +3767,7 @@
         <v>428</v>
       </c>
       <c r="B428">
-        <v>74.00688482484024</v>
+        <v>74.00688482484023</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3799,7 +3799,7 @@
         <v>432</v>
       </c>
       <c r="B432">
-        <v>77.98884102713194</v>
+        <v>77.98884102713193</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3855,7 +3855,7 @@
         <v>439</v>
       </c>
       <c r="B439">
-        <v>95.85269311769558</v>
+        <v>95.85269311769557</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3927,7 +3927,7 @@
         <v>448</v>
       </c>
       <c r="B448">
-        <v>37.53595248966779</v>
+        <v>37.53595248966778</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -4167,7 +4167,7 @@
         <v>478</v>
       </c>
       <c r="B478">
-        <v>64.05595077813292</v>
+        <v>64.05595077813291</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4183,7 +4183,7 @@
         <v>480</v>
       </c>
       <c r="B480">
-        <v>74.73545942695235</v>
+        <v>74.73545942695233</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4199,7 +4199,7 @@
         <v>482</v>
       </c>
       <c r="B482">
-        <v>78.67960946525673</v>
+        <v>78.67960946525672</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4207,7 +4207,7 @@
         <v>483</v>
       </c>
       <c r="B483">
-        <v>82.70933624685023</v>
+        <v>82.70933624685021</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4215,7 +4215,7 @@
         <v>484</v>
       </c>
       <c r="B484">
-        <v>84.92407408601402</v>
+        <v>84.924074086014</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4303,7 +4303,7 @@
         <v>495</v>
       </c>
       <c r="B495">
-        <v>7.241961207945039</v>
+        <v>7.241961207945038</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4311,7 +4311,7 @@
         <v>496</v>
       </c>
       <c r="B496">
-        <v>8.557410564976488</v>
+        <v>8.557410564976486</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4367,7 +4367,7 @@
         <v>503</v>
       </c>
       <c r="B503">
-        <v>53.6114851023199</v>
+        <v>53.61148510231989</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4423,7 +4423,7 @@
         <v>510</v>
       </c>
       <c r="B510">
-        <v>76.48597274087656</v>
+        <v>76.48597274087655</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4463,7 +4463,7 @@
         <v>515</v>
       </c>
       <c r="B515">
-        <v>35.3727951533084</v>
+        <v>35.37279515330839</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4775,7 +4775,7 @@
         <v>554</v>
       </c>
       <c r="B554">
-        <v>73.80290738193194</v>
+        <v>73.80290738193193</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4791,7 +4791,7 @@
         <v>556</v>
       </c>
       <c r="B556">
-        <v>82.89338485912955</v>
+        <v>82.89338485912954</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4799,7 +4799,7 @@
         <v>557</v>
       </c>
       <c r="B557">
-        <v>85.76929096151333</v>
+        <v>85.76929096151332</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4807,7 +4807,7 @@
         <v>558</v>
       </c>
       <c r="B558">
-        <v>86.21768965066519</v>
+        <v>86.21768965066518</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -5015,7 +5015,7 @@
         <v>584</v>
       </c>
       <c r="B584">
-        <v>14.31449804843996</v>
+        <v>14.31449804843995</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5175,7 +5175,7 @@
         <v>604</v>
       </c>
       <c r="B604">
-        <v>45.60947346271053</v>
+        <v>45.60947346271052</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5191,7 +5191,7 @@
         <v>606</v>
       </c>
       <c r="B606">
-        <v>47.7037591049845</v>
+        <v>47.70375910498449</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5215,7 +5215,7 @@
         <v>609</v>
       </c>
       <c r="B609">
-        <v>6.591900337090309</v>
+        <v>6.591900337090308</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5247,7 +5247,7 @@
         <v>613</v>
       </c>
       <c r="B613">
-        <v>6.234939812000791</v>
+        <v>6.23493981200079</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5375,7 +5375,7 @@
         <v>629</v>
       </c>
       <c r="B629">
-        <v>81.75685537120086</v>
+        <v>81.75685537120084</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5511,7 +5511,7 @@
         <v>646</v>
       </c>
       <c r="B646">
-        <v>35.76287270576665</v>
+        <v>35.76287270576664</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5527,7 +5527,7 @@
         <v>648</v>
       </c>
       <c r="B648">
-        <v>50.53394612533711</v>
+        <v>50.5339461253371</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5631,7 +5631,7 @@
         <v>661</v>
       </c>
       <c r="B661">
-        <v>7.566918375612739</v>
+        <v>7.566918375612738</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5639,7 +5639,7 @@
         <v>662</v>
       </c>
       <c r="B662">
-        <v>6.842651917768956</v>
+        <v>6.842651917768955</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5647,7 +5647,7 @@
         <v>663</v>
       </c>
       <c r="B663">
-        <v>6.92011059328715</v>
+        <v>6.920110593287149</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5655,7 +5655,7 @@
         <v>664</v>
       </c>
       <c r="B664">
-        <v>8.515823784590443</v>
+        <v>8.515823784590442</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5855,7 +5855,7 @@
         <v>689</v>
       </c>
       <c r="B689">
-        <v>3.801160678541515</v>
+        <v>3.801160678541514</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -6063,7 +6063,7 @@
         <v>715</v>
       </c>
       <c r="B715">
-        <v>21.06310346990249</v>
+        <v>21.06310346990248</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6191,7 +6191,7 @@
         <v>731</v>
       </c>
       <c r="B731">
-        <v>3.304756953256928</v>
+        <v>3.304756953256927</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -6343,7 +6343,7 @@
         <v>750</v>
       </c>
       <c r="B750">
-        <v>55.31334862382633</v>
+        <v>55.31334862382632</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -6375,7 +6375,7 @@
         <v>754</v>
       </c>
       <c r="B754">
-        <v>7.736225514647398</v>
+        <v>7.736225514647397</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -6519,7 +6519,7 @@
         <v>772</v>
       </c>
       <c r="B772">
-        <v>60.49015545074033</v>
+        <v>60.49015545074032</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -6615,7 +6615,7 @@
         <v>784</v>
       </c>
       <c r="B784">
-        <v>21.33718350525858</v>
+        <v>21.33718350525857</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -6663,7 +6663,7 @@
         <v>790</v>
       </c>
       <c r="B790">
-        <v>47.6779688535823</v>
+        <v>47.67796885358229</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -6695,7 +6695,7 @@
         <v>794</v>
       </c>
       <c r="B794">
-        <v>71.1435807771189</v>
+        <v>71.14358077711888</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -6727,7 +6727,7 @@
         <v>798</v>
       </c>
       <c r="B798">
-        <v>87.76422552168111</v>
+        <v>87.7642255216811</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -6735,7 +6735,7 @@
         <v>799</v>
       </c>
       <c r="B799">
-        <v>88.79612864880771</v>
+        <v>88.7961286488077</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -6863,7 +6863,7 @@
         <v>815</v>
       </c>
       <c r="B815">
-        <v>56.1339475320781</v>
+        <v>56.13394753207809</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -6887,7 +6887,7 @@
         <v>818</v>
       </c>
       <c r="B818">
-        <v>71.57146449356446</v>
+        <v>71.57146449356445</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -6967,7 +6967,7 @@
         <v>828</v>
       </c>
       <c r="B828">
-        <v>8.657347789160006</v>
+        <v>8.657347789160005</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -7063,7 +7063,7 @@
         <v>840</v>
       </c>
       <c r="B840">
-        <v>43.20218795114624</v>
+        <v>43.20218795114623</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -7079,7 +7079,7 @@
         <v>842</v>
       </c>
       <c r="B842">
-        <v>49.59377423331152</v>
+        <v>49.59377423331151</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -7135,7 +7135,7 @@
         <v>849</v>
       </c>
       <c r="B849">
-        <v>7.760022882986699</v>
+        <v>7.760022882986698</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -7143,7 +7143,7 @@
         <v>850</v>
       </c>
       <c r="B850">
-        <v>7.993336736864997</v>
+        <v>7.993336736864996</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -7199,7 +7199,7 @@
         <v>857</v>
       </c>
       <c r="B857">
-        <v>0.2631672421604963</v>
+        <v>0.2631672421604962</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -7215,7 +7215,7 @@
         <v>859</v>
       </c>
       <c r="B859">
-        <v>16.69402973264302</v>
+        <v>16.69402973264301</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -7343,7 +7343,7 @@
         <v>875</v>
       </c>
       <c r="B875">
-        <v>1.402705397372091</v>
+        <v>1.40270539737209</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -7407,7 +7407,7 @@
         <v>883</v>
       </c>
       <c r="B883">
-        <v>8.992972742634979</v>
+        <v>8.992972742634977</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -7423,7 +7423,7 @@
         <v>885</v>
       </c>
       <c r="B885">
-        <v>7.49450052195952</v>
+        <v>7.494500521959519</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -7431,7 +7431,7 @@
         <v>886</v>
       </c>
       <c r="B886">
-        <v>9.531109783824942</v>
+        <v>9.53110978382494</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -7463,7 +7463,7 @@
         <v>890</v>
       </c>
       <c r="B890">
-        <v>37.29387581173352</v>
+        <v>37.29387581173351</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -7511,7 +7511,7 @@
         <v>896</v>
       </c>
       <c r="B896">
-        <v>6.921810405311386</v>
+        <v>6.921810405311385</v>
       </c>
     </row>
     <row r="897" spans="1:2">
@@ -7599,7 +7599,7 @@
         <v>907</v>
       </c>
       <c r="B907">
-        <v>55.08944235028906</v>
+        <v>55.08944235028905</v>
       </c>
     </row>
     <row r="908" spans="1:2">
@@ -7647,7 +7647,7 @@
         <v>913</v>
       </c>
       <c r="B913">
-        <v>59.65724755886479</v>
+        <v>59.65724755886478</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -7783,7 +7783,7 @@
         <v>930</v>
       </c>
       <c r="B930">
-        <v>16.48659405147852</v>
+        <v>16.48659405147851</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -7847,7 +7847,7 @@
         <v>938</v>
       </c>
       <c r="B938">
-        <v>59.75132336227508</v>
+        <v>59.75132336227507</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -7927,7 +7927,7 @@
         <v>948</v>
       </c>
       <c r="B948">
-        <v>15.24499859618973</v>
+        <v>15.24499859618972</v>
       </c>
     </row>
     <row r="949" spans="1:2">
@@ -8071,7 +8071,7 @@
         <v>966</v>
       </c>
       <c r="B966">
-        <v>97.95547782009074</v>
+        <v>97.95547782009072</v>
       </c>
     </row>
     <row r="967" spans="1:2">
@@ -8095,7 +8095,7 @@
         <v>969</v>
       </c>
       <c r="B969">
-        <v>37.75487655554781</v>
+        <v>37.7548765555478</v>
       </c>
     </row>
     <row r="970" spans="1:2">
@@ -8199,7 +8199,7 @@
         <v>982</v>
       </c>
       <c r="B982">
-        <v>71.94102707331642</v>
+        <v>71.94102707331641</v>
       </c>
     </row>
     <row r="983" spans="1:2">
@@ -8223,7 +8223,7 @@
         <v>985</v>
       </c>
       <c r="B985">
-        <v>89.26445616858854</v>
+        <v>89.26445616858852</v>
       </c>
     </row>
     <row r="986" spans="1:2">
@@ -8239,7 +8239,7 @@
         <v>987</v>
       </c>
       <c r="B987">
-        <v>95.9010498390747</v>
+        <v>95.90104983907467</v>
       </c>
     </row>
     <row r="988" spans="1:2">
@@ -8367,7 +8367,7 @@
         <v>1003</v>
       </c>
       <c r="B1003">
-        <v>86.86010136741086</v>
+        <v>86.86010136741085</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
@@ -8439,7 +8439,7 @@
         <v>1012</v>
       </c>
       <c r="B1012">
-        <v>92.599311517516</v>
+        <v>92.59931151751596</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
@@ -8487,7 +8487,7 @@
         <v>1018</v>
       </c>
       <c r="B1018">
-        <v>26.74056355216167</v>
+        <v>26.74056355216166</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
@@ -8503,7 +8503,7 @@
         <v>1020</v>
       </c>
       <c r="B1020">
-        <v>31.02332786853537</v>
+        <v>31.02332786853536</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
@@ -8559,7 +8559,7 @@
         <v>1027</v>
       </c>
       <c r="B1027">
-        <v>60.40663020472185</v>
+        <v>60.40663020472184</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
@@ -8647,7 +8647,7 @@
         <v>1038</v>
       </c>
       <c r="B1038">
-        <v>66.72582794033778</v>
+        <v>66.72582794033777</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
@@ -8783,7 +8783,7 @@
         <v>1055</v>
       </c>
       <c r="B1055">
-        <v>21.33718350525858</v>
+        <v>21.33718350525857</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
@@ -8799,7 +8799,7 @@
         <v>1057</v>
       </c>
       <c r="B1057">
-        <v>36.82789286026198</v>
+        <v>36.82789286026197</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
@@ -8839,7 +8839,7 @@
         <v>1062</v>
       </c>
       <c r="B1062">
-        <v>54.80135351928496</v>
+        <v>54.80135351928495</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
@@ -8871,7 +8871,7 @@
         <v>1066</v>
       </c>
       <c r="B1066">
-        <v>4.175734773054581</v>
+        <v>4.17573477305458</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
@@ -8887,7 +8887,7 @@
         <v>1068</v>
       </c>
       <c r="B1068">
-        <v>2.219945711520799</v>
+        <v>2.219945711520798</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
@@ -8959,7 +8959,7 @@
         <v>1077</v>
       </c>
       <c r="B1077">
-        <v>6.138079833723216</v>
+        <v>6.138079833723215</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
@@ -8967,7 +8967,7 @@
         <v>1078</v>
       </c>
       <c r="B1078">
-        <v>8.282011709946422</v>
+        <v>8.282011709946421</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
@@ -9015,7 +9015,7 @@
         <v>1084</v>
       </c>
       <c r="B1084">
-        <v>52.74780475138491</v>
+        <v>52.7478047513849</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
@@ -9047,7 +9047,7 @@
         <v>1088</v>
       </c>
       <c r="B1088">
-        <v>7.749267175867828</v>
+        <v>7.749267175867827</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
@@ -9103,7 +9103,7 @@
         <v>1095</v>
       </c>
       <c r="B1095">
-        <v>3.909596962846213</v>
+        <v>3.909596962846212</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
@@ -9127,7 +9127,7 @@
         <v>1098</v>
       </c>
       <c r="B1098">
-        <v>1.043095510093074</v>
+        <v>1.043095510093073</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
@@ -9359,7 +9359,7 @@
         <v>1127</v>
       </c>
       <c r="B1127">
-        <v>38.87616634946612</v>
+        <v>38.87616634946611</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
@@ -9407,7 +9407,7 @@
         <v>1133</v>
       </c>
       <c r="B1133">
-        <v>60.7709175057779</v>
+        <v>60.77091750577789</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
@@ -9431,7 +9431,7 @@
         <v>1136</v>
       </c>
       <c r="B1136">
-        <v>6.993466274264085</v>
+        <v>6.993466274264084</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
@@ -9447,7 +9447,7 @@
         <v>1138</v>
       </c>
       <c r="B1138">
-        <v>5.214525069589719</v>
+        <v>5.214525069589718</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
@@ -9487,7 +9487,7 @@
         <v>1143</v>
       </c>
       <c r="B1143">
-        <v>4.347738165644924</v>
+        <v>4.347738165644923</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
@@ -9511,7 +9511,7 @@
         <v>1146</v>
       </c>
       <c r="B1146">
-        <v>4.973591368706226</v>
+        <v>4.973591368706225</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
@@ -9711,7 +9711,7 @@
         <v>1171</v>
       </c>
       <c r="B1171">
-        <v>5.844510574296146</v>
+        <v>5.844510574296145</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
@@ -9735,7 +9735,7 @@
         <v>1174</v>
       </c>
       <c r="B1174">
-        <v>7.883640247094054</v>
+        <v>7.883640247094053</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
@@ -9743,7 +9743,7 @@
         <v>1175</v>
       </c>
       <c r="B1175">
-        <v>11.13781313907804</v>
+        <v>11.13781313907803</v>
       </c>
     </row>
     <row r="1176" spans="1:2">
@@ -9799,7 +9799,7 @@
         <v>1182</v>
       </c>
       <c r="B1182">
-        <v>47.64485182621357</v>
+        <v>47.64485182621356</v>
       </c>
     </row>
     <row r="1183" spans="1:2">
@@ -9951,7 +9951,7 @@
         <v>1201</v>
       </c>
       <c r="B1201">
-        <v>40.46080145550801</v>
+        <v>40.460801455508</v>
       </c>
     </row>
     <row r="1202" spans="1:2">
@@ -9975,7 +9975,7 @@
         <v>1204</v>
       </c>
       <c r="B1204">
-        <v>54.28672077539564</v>
+        <v>54.28672077539563</v>
       </c>
     </row>
     <row r="1205" spans="1:2">
@@ -9983,7 +9983,7 @@
         <v>1205</v>
       </c>
       <c r="B1205">
-        <v>58.48554954629673</v>
+        <v>58.48554954629672</v>
       </c>
     </row>
     <row r="1206" spans="1:2">
@@ -10095,7 +10095,7 @@
         <v>1219</v>
       </c>
       <c r="B1219">
-        <v>30.03362697097601</v>
+        <v>30.033626970976</v>
       </c>
     </row>
     <row r="1220" spans="1:2">
@@ -10111,7 +10111,7 @@
         <v>1221</v>
       </c>
       <c r="B1221">
-        <v>17.10435849387277</v>
+        <v>17.10435849387276</v>
       </c>
     </row>
     <row r="1222" spans="1:2">
@@ -10151,7 +10151,7 @@
         <v>1226</v>
       </c>
       <c r="B1226">
-        <v>42.57765356775891</v>
+        <v>42.5776535677589</v>
       </c>
     </row>
     <row r="1227" spans="1:2">
@@ -10199,7 +10199,7 @@
         <v>1232</v>
       </c>
       <c r="B1232">
-        <v>6.620240306528862</v>
+        <v>6.620240306528861</v>
       </c>
     </row>
     <row r="1233" spans="1:2">
@@ -10271,7 +10271,7 @@
         <v>1241</v>
       </c>
       <c r="B1241">
-        <v>10.61784650228508</v>
+        <v>10.61784650228507</v>
       </c>
     </row>
     <row r="1242" spans="1:2">
@@ -10335,7 +10335,7 @@
         <v>1249</v>
       </c>
       <c r="B1249">
-        <v>56.80127028710998</v>
+        <v>56.80127028710997</v>
       </c>
     </row>
     <row r="1250" spans="1:2">
@@ -10559,7 +10559,7 @@
         <v>1277</v>
       </c>
       <c r="B1277">
-        <v>67.20734365685837</v>
+        <v>67.20734365685836</v>
       </c>
     </row>
     <row r="1278" spans="1:2">
@@ -10567,7 +10567,7 @@
         <v>1278</v>
       </c>
       <c r="B1278">
-        <v>66.15756319637343</v>
+        <v>66.15756319637342</v>
       </c>
     </row>
     <row r="1279" spans="1:2">
@@ -10671,7 +10671,7 @@
         <v>1291</v>
       </c>
       <c r="B1291">
-        <v>57.41759868141479</v>
+        <v>57.41759868141478</v>
       </c>
     </row>
     <row r="1292" spans="1:2">
@@ -10823,7 +10823,7 @@
         <v>1310</v>
       </c>
       <c r="B1310">
-        <v>0.5784929232136296</v>
+        <v>0.5784929232136294</v>
       </c>
     </row>
     <row r="1311" spans="1:2">
@@ -11079,7 +11079,7 @@
         <v>1342</v>
       </c>
       <c r="B1342">
-        <v>9.84683521377481</v>
+        <v>9.846835213774808</v>
       </c>
     </row>
     <row r="1343" spans="1:2">
@@ -11087,7 +11087,7 @@
         <v>1343</v>
       </c>
       <c r="B1343">
-        <v>12.76963268234441</v>
+        <v>12.7696326823444</v>
       </c>
     </row>
     <row r="1344" spans="1:2">
@@ -11127,7 +11127,7 @@
         <v>1348</v>
       </c>
       <c r="B1348">
-        <v>35.62014710993857</v>
+        <v>35.62014710993856</v>
       </c>
     </row>
     <row r="1349" spans="1:2">
@@ -11191,7 +11191,7 @@
         <v>1356</v>
       </c>
       <c r="B1356">
-        <v>3.841223489526521</v>
+        <v>3.84122348952652</v>
       </c>
     </row>
     <row r="1357" spans="1:2">
@@ -11199,7 +11199,7 @@
         <v>1357</v>
       </c>
       <c r="B1357">
-        <v>3.304463882218267</v>
+        <v>3.304463882218266</v>
       </c>
     </row>
     <row r="1358" spans="1:2">
@@ -11207,7 +11207,7 @@
         <v>1358</v>
       </c>
       <c r="B1358">
-        <v>2.304968550546842</v>
+        <v>2.304968550546841</v>
       </c>
     </row>
     <row r="1359" spans="1:2">
@@ -11223,7 +11223,7 @@
         <v>1360</v>
       </c>
       <c r="B1360">
-        <v>0.8895702464903279</v>
+        <v>0.8895702464903278</v>
       </c>
     </row>
     <row r="1361" spans="1:2">
@@ -11447,7 +11447,7 @@
         <v>1388</v>
       </c>
       <c r="B1388">
-        <v>8.231867255231466</v>
+        <v>8.231867255231464</v>
       </c>
     </row>
     <row r="1389" spans="1:2">
@@ -11503,7 +11503,7 @@
         <v>1395</v>
       </c>
       <c r="B1395">
-        <v>35.3651753063032</v>
+        <v>35.36517530630319</v>
       </c>
     </row>
     <row r="1396" spans="1:2">
@@ -11543,7 +11543,7 @@
         <v>1400</v>
       </c>
       <c r="B1400">
-        <v>2.469545523017507</v>
+        <v>2.469545523017506</v>
       </c>
     </row>
     <row r="1401" spans="1:2">
@@ -11663,7 +11663,7 @@
         <v>1415</v>
       </c>
       <c r="B1415">
-        <v>12.63625605264963</v>
+        <v>12.63625605264962</v>
       </c>
     </row>
     <row r="1416" spans="1:2">
@@ -11703,7 +11703,7 @@
         <v>1420</v>
       </c>
       <c r="B1420">
-        <v>78.35049068884004</v>
+        <v>78.35049068884003</v>
       </c>
     </row>
     <row r="1421" spans="1:2">
@@ -11815,7 +11815,7 @@
         <v>1434</v>
       </c>
       <c r="B1434">
-        <v>24.83639309266731</v>
+        <v>24.8363930926673</v>
       </c>
     </row>
     <row r="1435" spans="1:2">
@@ -11975,7 +11975,7 @@
         <v>1454</v>
       </c>
       <c r="B1454">
-        <v>7.949376081065795</v>
+        <v>7.949376081065794</v>
       </c>
     </row>
     <row r="1455" spans="1:2">
@@ -12031,7 +12031,7 @@
         <v>1461</v>
       </c>
       <c r="B1461">
-        <v>34.35408022292156</v>
+        <v>34.35408022292155</v>
       </c>
     </row>
     <row r="1462" spans="1:2">
@@ -12079,7 +12079,7 @@
         <v>1467</v>
       </c>
       <c r="B1467">
-        <v>72.10397457081213</v>
+        <v>72.10397457081211</v>
       </c>
     </row>
     <row r="1468" spans="1:2">
@@ -12223,7 +12223,7 @@
         <v>1485</v>
       </c>
       <c r="B1485">
-        <v>34.66737316325054</v>
+        <v>34.66737316325053</v>
       </c>
     </row>
     <row r="1486" spans="1:2">
@@ -12271,7 +12271,7 @@
         <v>1491</v>
       </c>
       <c r="B1491">
-        <v>70.24883489608581</v>
+        <v>70.2488348960858</v>
       </c>
     </row>
     <row r="1492" spans="1:2">
@@ -12279,7 +12279,7 @@
         <v>1492</v>
       </c>
       <c r="B1492">
-        <v>74.11678646433825</v>
+        <v>74.11678646433823</v>
       </c>
     </row>
     <row r="1493" spans="1:2">
@@ -12287,7 +12287,7 @@
         <v>1493</v>
       </c>
       <c r="B1493">
-        <v>77.77489916890916</v>
+        <v>77.77489916890914</v>
       </c>
     </row>
     <row r="1494" spans="1:2">
@@ -12295,7 +12295,7 @@
         <v>1494</v>
       </c>
       <c r="B1494">
-        <v>79.69627289837294</v>
+        <v>79.69627289837292</v>
       </c>
     </row>
     <row r="1495" spans="1:2">
@@ -12303,7 +12303,7 @@
         <v>1495</v>
       </c>
       <c r="B1495">
-        <v>79.06704937836703</v>
+        <v>79.06704937836702</v>
       </c>
     </row>
     <row r="1496" spans="1:2">
@@ -12335,7 +12335,7 @@
         <v>1499</v>
       </c>
       <c r="B1499">
-        <v>4.950643906379043</v>
+        <v>4.950643906379042</v>
       </c>
     </row>
     <row r="1500" spans="1:2">
@@ -12383,7 +12383,7 @@
         <v>1505</v>
       </c>
       <c r="B1505">
-        <v>0.6313688000089095</v>
+        <v>0.6313688000089094</v>
       </c>
     </row>
     <row r="1506" spans="1:2">
@@ -12423,7 +12423,7 @@
         <v>1510</v>
       </c>
       <c r="B1510">
-        <v>19.16690454265972</v>
+        <v>19.16690454265971</v>
       </c>
     </row>
     <row r="1511" spans="1:2">
@@ -12447,7 +12447,7 @@
         <v>1513</v>
       </c>
       <c r="B1513">
-        <v>30.83107326717353</v>
+        <v>30.83107326717352</v>
       </c>
     </row>
     <row r="1514" spans="1:2">
@@ -12535,7 +12535,7 @@
         <v>1524</v>
       </c>
       <c r="B1524">
-        <v>0.2274644490176552</v>
+        <v>0.2274644490176551</v>
       </c>
     </row>
     <row r="1525" spans="1:2">
@@ -12751,7 +12751,7 @@
         <v>1551</v>
       </c>
       <c r="B1551">
-        <v>0.4454767708964047</v>
+        <v>0.4454767708964046</v>
       </c>
     </row>
     <row r="1552" spans="1:2">
@@ -12807,7 +12807,7 @@
         <v>1558</v>
       </c>
       <c r="B1558">
-        <v>13.95443097034063</v>
+        <v>13.95443097034062</v>
       </c>
     </row>
     <row r="1559" spans="1:2">
@@ -12839,7 +12839,7 @@
         <v>1562</v>
       </c>
       <c r="B1562">
-        <v>40.06837933474047</v>
+        <v>40.06837933474046</v>
       </c>
     </row>
     <row r="1563" spans="1:2">
@@ -12855,7 +12855,7 @@
         <v>1564</v>
       </c>
       <c r="B1564">
-        <v>50.6409170544485</v>
+        <v>50.64091705444849</v>
       </c>
     </row>
     <row r="1565" spans="1:2">
@@ -13071,7 +13071,7 @@
         <v>1591</v>
       </c>
       <c r="B1591">
-        <v>50.44221489023611</v>
+        <v>50.4422148902361</v>
       </c>
     </row>
     <row r="1592" spans="1:2">
@@ -13367,7 +13367,7 @@
         <v>1628</v>
       </c>
       <c r="B1628">
-        <v>10.31314054338888</v>
+        <v>10.31314054338887</v>
       </c>
     </row>
     <row r="1629" spans="1:2">
@@ -13431,7 +13431,7 @@
         <v>1636</v>
       </c>
       <c r="B1636">
-        <v>41.35994340212102</v>
+        <v>41.35994340212101</v>
       </c>
     </row>
     <row r="1637" spans="1:2">
@@ -13471,7 +13471,7 @@
         <v>1641</v>
       </c>
       <c r="B1641">
-        <v>2.167333598660314</v>
+        <v>2.167333598660313</v>
       </c>
     </row>
     <row r="1642" spans="1:2">
@@ -13543,7 +13543,7 @@
         <v>1650</v>
       </c>
       <c r="B1650">
-        <v>0.079435732745003</v>
+        <v>0.0794357327450029</v>
       </c>
     </row>
     <row r="1651" spans="1:2">
@@ -13551,7 +13551,7 @@
         <v>1651</v>
       </c>
       <c r="B1651">
-        <v>7.266110261530734</v>
+        <v>7.266110261530733</v>
       </c>
     </row>
     <row r="1652" spans="1:2">
@@ -13567,7 +13567,7 @@
         <v>1653</v>
       </c>
       <c r="B1653">
-        <v>7.807881383600097</v>
+        <v>7.807881383600096</v>
       </c>
     </row>
     <row r="1654" spans="1:2">
@@ -13639,7 +13639,7 @@
         <v>1662</v>
       </c>
       <c r="B1662">
-        <v>32.09655401211322</v>
+        <v>32.09655401211321</v>
       </c>
     </row>
     <row r="1663" spans="1:2">
@@ -13655,7 +13655,7 @@
         <v>1664</v>
       </c>
       <c r="B1664">
-        <v>0.8139461956741544</v>
+        <v>0.8139461956741543</v>
       </c>
     </row>
     <row r="1665" spans="1:2">
@@ -13695,7 +13695,7 @@
         <v>1669</v>
       </c>
       <c r="B1669">
-        <v>0.2795332081724618</v>
+        <v>0.2795332081724617</v>
       </c>
     </row>
     <row r="1670" spans="1:2">
@@ -13751,7 +13751,7 @@
         <v>1676</v>
       </c>
       <c r="B1676">
-        <v>5.027340597196718</v>
+        <v>5.027340597196717</v>
       </c>
     </row>
     <row r="1677" spans="1:2">
@@ -13759,7 +13759,7 @@
         <v>1677</v>
       </c>
       <c r="B1677">
-        <v>6.500169101989308</v>
+        <v>6.500169101989307</v>
       </c>
     </row>
     <row r="1678" spans="1:2">
@@ -13823,7 +13823,7 @@
         <v>1685</v>
       </c>
       <c r="B1685">
-        <v>33.01122872377528</v>
+        <v>33.01122872377527</v>
       </c>
     </row>
     <row r="1686" spans="1:2">
@@ -14079,7 +14079,7 @@
         <v>1717</v>
       </c>
       <c r="B1717">
-        <v>0.8071997003641702</v>
+        <v>0.8071997003641701</v>
       </c>
     </row>
     <row r="1718" spans="1:2">
@@ -14159,7 +14159,7 @@
         <v>1727</v>
       </c>
       <c r="B1727">
-        <v>7.577762004043209</v>
+        <v>7.577762004043208</v>
       </c>
     </row>
     <row r="1728" spans="1:2">
@@ -14175,7 +14175,7 @@
         <v>1729</v>
       </c>
       <c r="B1729">
-        <v>14.407753252942</v>
+        <v>14.40775325294199</v>
       </c>
     </row>
     <row r="1730" spans="1:2">
@@ -14191,7 +14191,7 @@
         <v>1731</v>
       </c>
       <c r="B1731">
-        <v>22.0999301904786</v>
+        <v>22.09993019047859</v>
       </c>
     </row>
     <row r="1732" spans="1:2">
@@ -14335,7 +14335,7 @@
         <v>1749</v>
       </c>
       <c r="B1749">
-        <v>0.6611125797226494</v>
+        <v>0.6611125797226493</v>
       </c>
     </row>
     <row r="1750" spans="1:2">
@@ -14359,7 +14359,7 @@
         <v>1752</v>
       </c>
       <c r="B1752">
-        <v>7.673039398712012</v>
+        <v>7.673039398712011</v>
       </c>
     </row>
     <row r="1753" spans="1:2">
@@ -14391,7 +14391,7 @@
         <v>1756</v>
       </c>
       <c r="B1756">
-        <v>30.31409595497492</v>
+        <v>30.31409595497491</v>
       </c>
     </row>
     <row r="1757" spans="1:2">
@@ -14407,7 +14407,7 @@
         <v>1758</v>
       </c>
       <c r="B1758">
-        <v>35.52841587483757</v>
+        <v>35.52841587483756</v>
       </c>
     </row>
     <row r="1759" spans="1:2">
@@ -14519,7 +14519,7 @@
         <v>1772</v>
       </c>
       <c r="B1772">
-        <v>0.8928262657298554</v>
+        <v>0.8928262657298552</v>
       </c>
     </row>
     <row r="1773" spans="1:2">
@@ -14543,7 +14543,7 @@
         <v>1775</v>
       </c>
       <c r="B1775">
-        <v>5.400009729958484</v>
+        <v>5.400009729958483</v>
       </c>
     </row>
     <row r="1776" spans="1:2">
@@ -14655,7 +14655,7 @@
         <v>1789</v>
       </c>
       <c r="B1789">
-        <v>0.7395383896684253</v>
+        <v>0.7395383896684252</v>
       </c>
     </row>
     <row r="1790" spans="1:2">
@@ -14727,7 +14727,7 @@
         <v>1798</v>
       </c>
       <c r="B1798">
-        <v>6.150154360516064</v>
+        <v>6.150154360516063</v>
       </c>
     </row>
     <row r="1799" spans="1:2">
@@ -14831,7 +14831,7 @@
         <v>1811</v>
       </c>
       <c r="B1811">
-        <v>5.708789376292078</v>
+        <v>5.708789376292077</v>
       </c>
     </row>
     <row r="1812" spans="1:2">
@@ -14871,7 +14871,7 @@
         <v>1816</v>
       </c>
       <c r="B1816">
-        <v>0.9516368310580277</v>
+        <v>0.9516368310580274</v>
       </c>
     </row>
     <row r="1817" spans="1:2">
@@ -14879,7 +14879,7 @@
         <v>1817</v>
       </c>
       <c r="B1817">
-        <v>0.3946904906067802</v>
+        <v>0.3946904906067801</v>
       </c>
     </row>
     <row r="1818" spans="1:2">
@@ -15023,7 +15023,7 @@
         <v>1835</v>
       </c>
       <c r="B1835">
-        <v>1.712762833434248</v>
+        <v>1.712762833434247</v>
       </c>
     </row>
     <row r="1836" spans="1:2">
@@ -15319,7 +15319,7 @@
         <v>1872</v>
       </c>
       <c r="B1872">
-        <v>9.969778514493244</v>
+        <v>9.969778514493242</v>
       </c>
     </row>
     <row r="1873" spans="1:2">
@@ -15343,7 +15343,7 @@
         <v>1875</v>
       </c>
       <c r="B1875">
-        <v>19.76189736534998</v>
+        <v>19.76189736534997</v>
       </c>
     </row>
     <row r="1876" spans="1:2">
@@ -15423,7 +15423,7 @@
         <v>1885</v>
       </c>
       <c r="B1885">
-        <v>1.722437108420459</v>
+        <v>1.722437108420458</v>
       </c>
     </row>
     <row r="1886" spans="1:2">
@@ -15463,7 +15463,7 @@
         <v>1890</v>
       </c>
       <c r="B1890">
-        <v>5.57851929960711</v>
+        <v>5.578519299607109</v>
       </c>
     </row>
     <row r="1891" spans="1:2">
@@ -15551,7 +15551,7 @@
         <v>1901</v>
       </c>
       <c r="B1901">
-        <v>34.01235939184243</v>
+        <v>34.01235939184242</v>
       </c>
     </row>
     <row r="1902" spans="1:2">
@@ -15559,7 +15559,7 @@
         <v>1902</v>
       </c>
       <c r="B1902">
-        <v>35.30656109857093</v>
+        <v>35.30656109857092</v>
       </c>
     </row>
     <row r="1903" spans="1:2">
@@ -15639,7 +15639,7 @@
         <v>1912</v>
       </c>
       <c r="B1912">
-        <v>0.0814207028898563</v>
+        <v>0.0814207028898562</v>
       </c>
     </row>
     <row r="1913" spans="1:2">
@@ -15807,7 +15807,7 @@
         <v>1933</v>
       </c>
       <c r="B1933">
-        <v>0.3961822221935664</v>
+        <v>0.3961822221935663</v>
       </c>
     </row>
     <row r="1934" spans="1:2">
@@ -15911,7 +15911,7 @@
         <v>1946</v>
       </c>
       <c r="B1946">
-        <v>29.39561131981026</v>
+        <v>29.39561131981025</v>
       </c>
     </row>
     <row r="1947" spans="1:2">
@@ -16047,7 +16047,7 @@
         <v>1963</v>
       </c>
       <c r="B1963">
-        <v>7.971356408965396</v>
+        <v>7.971356408965395</v>
       </c>
     </row>
     <row r="1964" spans="1:2">
@@ -16079,7 +16079,7 @@
         <v>1967</v>
       </c>
       <c r="B1967">
-        <v>11.82714552911339</v>
+        <v>11.82714552911338</v>
       </c>
     </row>
     <row r="1968" spans="1:2">
@@ -16111,7 +16111,7 @@
         <v>1971</v>
       </c>
       <c r="B1971">
-        <v>32.5197485919402</v>
+        <v>32.51974859194019</v>
       </c>
     </row>
     <row r="1972" spans="1:2">
@@ -16199,7 +16199,7 @@
         <v>1982</v>
       </c>
       <c r="B1982">
-        <v>0.7912126752051938</v>
+        <v>0.7912126752051937</v>
       </c>
     </row>
     <row r="1983" spans="1:2">
@@ -16391,7 +16391,7 @@
         <v>2006</v>
       </c>
       <c r="B2006">
-        <v>0.9412679777101892</v>
+        <v>0.941267977710189</v>
       </c>
     </row>
     <row r="2007" spans="1:2">
@@ -16495,7 +16495,7 @@
         <v>2019</v>
       </c>
       <c r="B2019">
-        <v>25.91249133242404</v>
+        <v>25.91249133242403</v>
       </c>
     </row>
     <row r="2020" spans="1:2">
@@ -16511,7 +16511,7 @@
         <v>2021</v>
       </c>
       <c r="B2021">
-        <v>27.49865040786697</v>
+        <v>27.49865040786696</v>
       </c>
     </row>
     <row r="2022" spans="1:2">
@@ -16607,7 +16607,7 @@
         <v>2033</v>
       </c>
       <c r="B2033">
-        <v>0.0571764012165965</v>
+        <v>0.0571764012165964</v>
       </c>
     </row>
     <row r="2034" spans="1:2">
@@ -16735,7 +16735,7 @@
         <v>2049</v>
       </c>
       <c r="B2049">
-        <v>0.4779109427450558</v>
+        <v>0.4779109427450557</v>
       </c>
     </row>
     <row r="2050" spans="1:2">
@@ -16767,7 +16767,7 @@
         <v>2053</v>
       </c>
       <c r="B2053">
-        <v>0.614775117799904</v>
+        <v>0.6147751177999039</v>
       </c>
     </row>
     <row r="2054" spans="1:2">
@@ -17087,7 +17087,7 @@
         <v>2093</v>
       </c>
       <c r="B2093">
-        <v>42.49119761135381</v>
+        <v>42.4911976113538</v>
       </c>
     </row>
     <row r="2094" spans="1:2">
@@ -17111,7 +17111,7 @@
         <v>2096</v>
       </c>
       <c r="B2096">
-        <v>3.518054055194656</v>
+        <v>3.518054055194655</v>
       </c>
     </row>
     <row r="2097" spans="1:2">
@@ -17127,7 +17127,7 @@
         <v>2098</v>
       </c>
       <c r="B2098">
-        <v>7.010317858987112</v>
+        <v>7.010317858987111</v>
       </c>
     </row>
     <row r="2099" spans="1:2">
@@ -17135,7 +17135,7 @@
         <v>2099</v>
       </c>
       <c r="B2099">
-        <v>7.621722659842411</v>
+        <v>7.62172265984241</v>
       </c>
     </row>
     <row r="2100" spans="1:2">
@@ -17159,7 +17159,7 @@
         <v>2102</v>
       </c>
       <c r="B2102">
-        <v>3.225774308337696</v>
+        <v>3.225774308337695</v>
       </c>
     </row>
     <row r="2103" spans="1:2">
@@ -17247,7 +17247,7 @@
         <v>2113</v>
       </c>
       <c r="B2113">
-        <v>36.45334807285278</v>
+        <v>36.45334807285277</v>
       </c>
     </row>
     <row r="2114" spans="1:2">
@@ -17279,7 +17279,7 @@
         <v>2117</v>
       </c>
       <c r="B2117">
-        <v>49.37485016743149</v>
+        <v>49.37485016743148</v>
       </c>
     </row>
     <row r="2118" spans="1:2">
@@ -17295,7 +17295,7 @@
         <v>2119</v>
       </c>
       <c r="B2119">
-        <v>3.597183235633219</v>
+        <v>3.597183235633218</v>
       </c>
     </row>
     <row r="2120" spans="1:2">
@@ -17439,7 +17439,7 @@
         <v>2137</v>
       </c>
       <c r="B2137">
-        <v>17.53089408354049</v>
+        <v>17.53089408354048</v>
       </c>
     </row>
     <row r="2138" spans="1:2">
@@ -17479,7 +17479,7 @@
         <v>2142</v>
       </c>
       <c r="B2142">
-        <v>41.48244709628146</v>
+        <v>41.48244709628145</v>
       </c>
     </row>
     <row r="2143" spans="1:2">
@@ -17495,7 +17495,7 @@
         <v>2144</v>
       </c>
       <c r="B2144">
-        <v>3.309504704083242</v>
+        <v>3.309504704083241</v>
       </c>
     </row>
     <row r="2145" spans="1:2">
@@ -17543,7 +17543,7 @@
         <v>2150</v>
       </c>
       <c r="B2150">
-        <v>0.8945934840929833</v>
+        <v>0.8945934840929832</v>
       </c>
     </row>
     <row r="2151" spans="1:2">
@@ -17687,7 +17687,7 @@
         <v>2168</v>
       </c>
       <c r="B2168">
-        <v>0.371696136913411</v>
+        <v>0.3716961369134109</v>
       </c>
     </row>
     <row r="2169" spans="1:2">
@@ -17831,7 +17831,7 @@
         <v>2186</v>
       </c>
       <c r="B2186">
-        <v>12.86939406390473</v>
+        <v>12.86939406390472</v>
       </c>
     </row>
     <row r="2187" spans="1:2">
@@ -17967,7 +17967,7 @@
         <v>2203</v>
       </c>
       <c r="B2203">
-        <v>1.201819853921672</v>
+        <v>1.201819853921671</v>
       </c>
     </row>
     <row r="2204" spans="1:2">
@@ -17983,7 +17983,7 @@
         <v>2205</v>
       </c>
       <c r="B2205">
-        <v>2.349910994325559</v>
+        <v>2.349910994325558</v>
       </c>
     </row>
     <row r="2206" spans="1:2">
@@ -17999,7 +17999,7 @@
         <v>2207</v>
       </c>
       <c r="B2207">
-        <v>8.532470219586408</v>
+        <v>8.532470219586406</v>
       </c>
     </row>
     <row r="2208" spans="1:2">
@@ -18223,7 +18223,7 @@
         <v>2235</v>
       </c>
       <c r="B2235">
-        <v>42.3100797094611</v>
+        <v>42.31007970946109</v>
       </c>
     </row>
     <row r="2236" spans="1:2">
@@ -18471,7 +18471,7 @@
         <v>2266</v>
       </c>
       <c r="B2266">
-        <v>8.883921009149093</v>
+        <v>8.883921009149091</v>
       </c>
     </row>
     <row r="2267" spans="1:2">
@@ -18487,7 +18487,7 @@
         <v>2268</v>
       </c>
       <c r="B2268">
-        <v>7.418946808192626</v>
+        <v>7.418946808192625</v>
       </c>
     </row>
     <row r="2269" spans="1:2">
@@ -18583,7 +18583,7 @@
         <v>2280</v>
       </c>
       <c r="B2280">
-        <v>17.79732496478752</v>
+        <v>17.79732496478751</v>
       </c>
     </row>
     <row r="2281" spans="1:2">
@@ -18631,7 +18631,7 @@
         <v>2286</v>
       </c>
       <c r="B2286">
-        <v>28.63052006628095</v>
+        <v>28.63052006628094</v>
       </c>
     </row>
     <row r="2287" spans="1:2">
@@ -18663,7 +18663,7 @@
         <v>2290</v>
       </c>
       <c r="B2290">
-        <v>2.086191020186148</v>
+        <v>2.086191020186147</v>
       </c>
     </row>
     <row r="2291" spans="1:2">
@@ -18687,7 +18687,7 @@
         <v>2293</v>
       </c>
       <c r="B2293">
-        <v>2.463950796889462</v>
+        <v>2.463950796889461</v>
       </c>
     </row>
     <row r="2294" spans="1:2">
@@ -18751,7 +18751,7 @@
         <v>2301</v>
       </c>
       <c r="B2301">
-        <v>7.629723499197866</v>
+        <v>7.629723499197865</v>
       </c>
     </row>
     <row r="2302" spans="1:2">
@@ -18959,7 +18959,7 @@
         <v>2327</v>
       </c>
       <c r="B2327">
-        <v>3.811916385660386</v>
+        <v>3.811916385660385</v>
       </c>
     </row>
     <row r="2328" spans="1:2">
@@ -19159,7 +19159,7 @@
         <v>2352</v>
       </c>
       <c r="B2352">
-        <v>3.000754364853515</v>
+        <v>3.000754364853514</v>
       </c>
     </row>
     <row r="2353" spans="1:2">
@@ -19191,7 +19191,7 @@
         <v>2356</v>
       </c>
       <c r="B2356">
-        <v>20.43387994989658</v>
+        <v>20.43387994989657</v>
       </c>
     </row>
     <row r="2357" spans="1:2">
@@ -19207,7 +19207,7 @@
         <v>2358</v>
       </c>
       <c r="B2358">
-        <v>23.57536702751527</v>
+        <v>23.57536702751526</v>
       </c>
     </row>
     <row r="2359" spans="1:2">
@@ -19367,7 +19367,7 @@
         <v>2378</v>
       </c>
       <c r="B2378">
-        <v>0.9944252027025841</v>
+        <v>0.9944252027025838</v>
       </c>
     </row>
     <row r="2379" spans="1:2">
@@ -19559,7 +19559,7 @@
         <v>2402</v>
       </c>
       <c r="B2402">
-        <v>4.986896793861452</v>
+        <v>4.986896793861451</v>
       </c>
     </row>
     <row r="2403" spans="1:2">
@@ -19711,7 +19711,7 @@
         <v>2421</v>
       </c>
       <c r="B2421">
-        <v>0.2775520479511111</v>
+        <v>0.277552047951111</v>
       </c>
     </row>
     <row r="2422" spans="1:2">
@@ -19719,7 +19719,7 @@
         <v>2422</v>
       </c>
       <c r="B2422">
-        <v>0.7680483403094011</v>
+        <v>0.7680483403094009</v>
       </c>
     </row>
     <row r="2423" spans="1:2">
@@ -19943,7 +19943,7 @@
         <v>2450</v>
       </c>
       <c r="B2450">
-        <v>8.444636829299602</v>
+        <v>8.444636829299601</v>
       </c>
     </row>
     <row r="2451" spans="1:2">
@@ -20743,7 +20743,7 @@
         <v>2550</v>
       </c>
       <c r="B2550">
-        <v>0.3118217237148982</v>
+        <v>0.3118217237148981</v>
       </c>
     </row>
     <row r="2551" spans="1:2">
@@ -20927,7 +20927,7 @@
         <v>2573</v>
       </c>
       <c r="B2573">
-        <v>0.3575906278226405</v>
+        <v>0.3575906278226404</v>
       </c>
     </row>
     <row r="2574" spans="1:2">
@@ -21495,7 +21495,7 @@
         <v>2644</v>
       </c>
       <c r="B2644">
-        <v>21.43023356003356</v>
+        <v>21.43023356003355</v>
       </c>
     </row>
     <row r="2645" spans="1:2">
@@ -21511,7 +21511,7 @@
         <v>2646</v>
       </c>
       <c r="B2646">
-        <v>26.237829492442</v>
+        <v>26.23782949244199</v>
       </c>
     </row>
     <row r="2647" spans="1:2">
@@ -21831,7 +21831,7 @@
         <v>2686</v>
       </c>
       <c r="B2686">
-        <v>0.088706741982016</v>
+        <v>0.0887067419820159</v>
       </c>
     </row>
     <row r="2687" spans="1:2">
@@ -22255,7 +22255,7 @@
         <v>2739</v>
       </c>
       <c r="B2739">
-        <v>0.433381729130851</v>
+        <v>0.4333817291308509</v>
       </c>
     </row>
     <row r="2740" spans="1:2">
@@ -22655,7 +22655,7 @@
         <v>2789</v>
       </c>
       <c r="B2789">
-        <v>0.2207182467787097</v>
+        <v>0.2207182467787096</v>
       </c>
     </row>
     <row r="2790" spans="1:2">
@@ -23015,7 +23015,7 @@
         <v>2834</v>
       </c>
       <c r="B2834">
-        <v>6.720646444374238</v>
+        <v>6.720646444374237</v>
       </c>
     </row>
     <row r="2835" spans="1:2">
@@ -23175,7 +23175,7 @@
         <v>2854</v>
       </c>
       <c r="B2854">
-        <v>0.7218925824306257</v>
+        <v>0.7218925824306256</v>
       </c>
     </row>
     <row r="2855" spans="1:2">
@@ -23191,7 +23191,7 @@
         <v>2856</v>
       </c>
       <c r="B2856">
-        <v>4.802584417647331</v>
+        <v>4.80258441764733</v>
       </c>
     </row>
     <row r="2857" spans="1:2">
@@ -23391,7 +23391,7 @@
         <v>2881</v>
       </c>
       <c r="B2881">
-        <v>3.891807550799469</v>
+        <v>3.891807550799468</v>
       </c>
     </row>
     <row r="2882" spans="1:2">
@@ -23599,7 +23599,7 @@
         <v>2907</v>
       </c>
       <c r="B2907">
-        <v>9.418248126836458</v>
+        <v>9.418248126836456</v>
       </c>
     </row>
     <row r="2908" spans="1:2">
@@ -23671,7 +23671,7 @@
         <v>2916</v>
       </c>
       <c r="B2916">
-        <v>0.2106178465022851</v>
+        <v>0.210617846502285</v>
       </c>
     </row>
     <row r="2917" spans="1:2">
@@ -25719,7 +25719,7 @@
         <v>3172</v>
       </c>
       <c r="B3172">
-        <v>6.239599641515507</v>
+        <v>6.239599641515506</v>
       </c>
     </row>
     <row r="3173" spans="1:2">
@@ -26087,7 +26087,7 @@
         <v>3218</v>
       </c>
       <c r="B3218">
-        <v>0.2314677994057692</v>
+        <v>0.2314677994057691</v>
       </c>
     </row>
     <row r="3219" spans="1:2">
@@ -26111,7 +26111,7 @@
         <v>3221</v>
       </c>
       <c r="B3221">
-        <v>4.322915048670308</v>
+        <v>4.322915048670307</v>
       </c>
     </row>
     <row r="3222" spans="1:2">
@@ -27071,7 +27071,7 @@
         <v>3341</v>
       </c>
       <c r="B3341">
-        <v>0.889834010425123</v>
+        <v>0.8898340104251229</v>
       </c>
     </row>
     <row r="3342" spans="1:2">
@@ -27999,7 +27999,7 @@
         <v>3457</v>
       </c>
       <c r="B3457">
-        <v>0.4549048662101402</v>
+        <v>0.4549048662101401</v>
       </c>
     </row>
     <row r="3458" spans="1:2">
@@ -51055,7 +51055,7 @@
         <v>6339</v>
       </c>
       <c r="B6339">
-        <v>0.3247256415471572</v>
+        <v>0.3247256415471571</v>
       </c>
     </row>
     <row r="6340" spans="1:2">
@@ -51639,7 +51639,7 @@
         <v>6412</v>
       </c>
       <c r="B6412">
-        <v>0.09927341828095081</v>
+        <v>0.0992734182809507</v>
       </c>
     </row>
     <row r="6413" spans="1:2">
@@ -53359,7 +53359,7 @@
         <v>6627</v>
       </c>
       <c r="B6627">
-        <v>10.53218183768437</v>
+        <v>10.53218183768436</v>
       </c>
     </row>
     <row r="6628" spans="1:2">
@@ -53567,7 +53567,7 @@
         <v>6653</v>
       </c>
       <c r="B6653">
-        <v>2.561892207299697</v>
+        <v>2.561892207299696</v>
       </c>
     </row>
     <row r="6654" spans="1:2">
@@ -53959,7 +53959,7 @@
         <v>6702</v>
       </c>
       <c r="B6702">
-        <v>2.081912183021692</v>
+        <v>2.081912183021691</v>
       </c>
     </row>
     <row r="6703" spans="1:2">
@@ -54695,7 +54695,7 @@
         <v>6794</v>
       </c>
       <c r="B6794">
-        <v>6.160148082934415</v>
+        <v>6.160148082934414</v>
       </c>
     </row>
     <row r="6795" spans="1:2">
@@ -54951,7 +54951,7 @@
         <v>6826</v>
       </c>
       <c r="B6826">
-        <v>0.8023024833081391</v>
+        <v>0.802302483308139</v>
       </c>
     </row>
     <row r="6827" spans="1:2">
@@ -55023,7 +55023,7 @@
         <v>6835</v>
       </c>
       <c r="B6835">
-        <v>0.6428132240686349</v>
+        <v>0.6428132240686348</v>
       </c>
     </row>
     <row r="6836" spans="1:2">
@@ -55151,7 +55151,7 @@
         <v>6851</v>
       </c>
       <c r="B6851">
-        <v>0.8823519068080989</v>
+        <v>0.8823519068080988</v>
       </c>
     </row>
     <row r="6852" spans="1:2">
@@ -55231,7 +55231,7 @@
         <v>6861</v>
       </c>
       <c r="B6861">
-        <v>0.2128202753578251</v>
+        <v>0.212820275357825</v>
       </c>
     </row>
     <row r="6862" spans="1:2">
@@ -55287,7 +55287,7 @@
         <v>6868</v>
       </c>
       <c r="B6868">
-        <v>27.7815225743829</v>
+        <v>27.78152257438289</v>
       </c>
     </row>
     <row r="6869" spans="1:2">
@@ -55303,7 +55303,7 @@
         <v>6870</v>
       </c>
       <c r="B6870">
-        <v>34.51937228872656</v>
+        <v>34.51937228872655</v>
       </c>
     </row>
     <row r="6871" spans="1:2">
@@ -55503,7 +55503,7 @@
         <v>6895</v>
       </c>
       <c r="B6895">
-        <v>0.5505046390214711</v>
+        <v>0.550504639021471</v>
       </c>
     </row>
     <row r="6896" spans="1:2">
@@ -56055,7 +56055,7 @@
         <v>6964</v>
       </c>
       <c r="B6964">
-        <v>7.725000893866668</v>
+        <v>7.725000893866667</v>
       </c>
     </row>
     <row r="6965" spans="1:2">
@@ -56647,7 +56647,7 @@
         <v>7038</v>
       </c>
       <c r="B7038">
-        <v>0.3509935987423736</v>
+        <v>0.3509935987423735</v>
       </c>
     </row>
     <row r="7039" spans="1:2">
@@ -57407,7 +57407,7 @@
         <v>7133</v>
       </c>
       <c r="B7133">
-        <v>0.0879772881667879</v>
+        <v>0.08797728816678781</v>
       </c>
     </row>
     <row r="7134" spans="1:2">
@@ -57743,7 +57743,7 @@
         <v>7175</v>
       </c>
       <c r="B7175">
-        <v>3.207779746563889</v>
+        <v>3.207779746563888</v>
       </c>
     </row>
     <row r="7176" spans="1:2">
@@ -57895,7 +57895,7 @@
         <v>7194</v>
       </c>
       <c r="B7194">
-        <v>0.3215223750945887</v>
+        <v>0.3215223750945886</v>
       </c>
     </row>
     <row r="7195" spans="1:2">
@@ -57959,7 +57959,7 @@
         <v>7202</v>
       </c>
       <c r="B7202">
-        <v>7.261069439665759</v>
+        <v>7.261069439665758</v>
       </c>
     </row>
     <row r="7203" spans="1:2">
@@ -58439,7 +58439,7 @@
         <v>7262</v>
       </c>
       <c r="B7262">
-        <v>0.3779444114576709</v>
+        <v>0.3779444114576708</v>
       </c>
     </row>
     <row r="7263" spans="1:2">
@@ -58503,7 +58503,7 @@
         <v>7270</v>
       </c>
       <c r="B7270">
-        <v>4.684945702728668</v>
+        <v>4.684945702728667</v>
       </c>
     </row>
     <row r="7271" spans="1:2">
@@ -58671,7 +58671,7 @@
         <v>7291</v>
       </c>
       <c r="B7291">
-        <v>0.9853927532910414</v>
+        <v>0.9853927532910411</v>
       </c>
     </row>
     <row r="7292" spans="1:2">
@@ -58815,7 +58815,7 @@
         <v>7309</v>
       </c>
       <c r="B7309">
-        <v>0.2276282757282669</v>
+        <v>0.2276282757282668</v>
       </c>
     </row>
     <row r="7310" spans="1:2">
@@ -58911,7 +58911,7 @@
         <v>7321</v>
       </c>
       <c r="B7321">
-        <v>22.74474508974129</v>
+        <v>22.74474508974128</v>
       </c>
     </row>
     <row r="7322" spans="1:2">
@@ -58927,7 +58927,7 @@
         <v>7323</v>
       </c>
       <c r="B7323">
-        <v>34.07361123892265</v>
+        <v>34.07361123892264</v>
       </c>
     </row>
     <row r="7324" spans="1:2">
@@ -59047,7 +59047,7 @@
         <v>7338</v>
       </c>
       <c r="B7338">
-        <v>7.265729269180475</v>
+        <v>7.265729269180474</v>
       </c>
     </row>
     <row r="7339" spans="1:2">
@@ -59199,7 +59199,7 @@
         <v>7357</v>
       </c>
       <c r="B7357">
-        <v>1.146540794609369</v>
+        <v>1.146540794609368</v>
       </c>
     </row>
     <row r="7358" spans="1:2">
@@ -59239,7 +59239,7 @@
         <v>7362</v>
       </c>
       <c r="B7362">
-        <v>6.319344271135258</v>
+        <v>6.319344271135257</v>
       </c>
     </row>
     <row r="7363" spans="1:2">
@@ -59503,7 +59503,7 @@
         <v>7395</v>
       </c>
       <c r="B7395">
-        <v>25.36271937099922</v>
+        <v>25.36271937099921</v>
       </c>
     </row>
     <row r="7396" spans="1:2">
@@ -59567,7 +59567,7 @@
         <v>7403</v>
       </c>
       <c r="B7403">
-        <v>0.9761024013654768</v>
+        <v>0.9761024013654764</v>
       </c>
     </row>
     <row r="7404" spans="1:2">
@@ -59679,7 +59679,7 @@
         <v>7417</v>
       </c>
       <c r="B7417">
-        <v>4.124447341288845</v>
+        <v>4.124447341288844</v>
       </c>
     </row>
     <row r="7418" spans="1:2">
@@ -59879,7 +59879,7 @@
         <v>7442</v>
       </c>
       <c r="B7442">
-        <v>0.5251569248876513</v>
+        <v>0.5251569248876512</v>
       </c>
     </row>
     <row r="7443" spans="1:2">
@@ -60287,7 +60287,7 @@
         <v>7493</v>
       </c>
       <c r="B7493">
-        <v>45.97141619545729</v>
+        <v>45.97141619545728</v>
       </c>
     </row>
     <row r="7494" spans="1:2">
@@ -60399,7 +60399,7 @@
         <v>7507</v>
       </c>
       <c r="B7507">
-        <v>67.64255414927047</v>
+        <v>67.64255414927045</v>
       </c>
     </row>
     <row r="7508" spans="1:2">
@@ -60455,7 +60455,7 @@
         <v>7514</v>
       </c>
       <c r="B7514">
-        <v>60.50598128682805</v>
+        <v>60.50598128682804</v>
       </c>
     </row>
     <row r="7515" spans="1:2">
@@ -60463,7 +60463,7 @@
         <v>7515</v>
       </c>
       <c r="B7515">
-        <v>65.75224594990479</v>
+        <v>65.75224594990478</v>
       </c>
     </row>
     <row r="7516" spans="1:2">
@@ -60551,7 +60551,7 @@
         <v>7526</v>
       </c>
       <c r="B7526">
-        <v>5.03762739065373</v>
+        <v>5.037627390653729</v>
       </c>
     </row>
     <row r="7527" spans="1:2">
@@ -60567,7 +60567,7 @@
         <v>7528</v>
       </c>
       <c r="B7528">
-        <v>5.60307865264693</v>
+        <v>5.603078652646929</v>
       </c>
     </row>
     <row r="7529" spans="1:2">
@@ -60623,7 +60623,7 @@
         <v>7535</v>
       </c>
       <c r="B7535">
-        <v>40.44526869045896</v>
+        <v>40.44526869045895</v>
       </c>
     </row>
     <row r="7536" spans="1:2">
@@ -60655,7 +60655,7 @@
         <v>7539</v>
       </c>
       <c r="B7539">
-        <v>61.19118137521827</v>
+        <v>61.19118137521826</v>
       </c>
     </row>
     <row r="7540" spans="1:2">
@@ -60799,7 +60799,7 @@
         <v>7557</v>
       </c>
       <c r="B7557">
-        <v>17.24825637385549</v>
+        <v>17.24825637385548</v>
       </c>
     </row>
     <row r="7558" spans="1:2">
@@ -60911,7 +60911,7 @@
         <v>7571</v>
       </c>
       <c r="B7571">
-        <v>3.480042741480279</v>
+        <v>3.480042741480278</v>
       </c>
     </row>
     <row r="7572" spans="1:2">
@@ -61063,7 +61063,7 @@
         <v>7590</v>
       </c>
       <c r="B7590">
-        <v>51.70623027998249</v>
+        <v>51.70623027998248</v>
       </c>
     </row>
     <row r="7591" spans="1:2">
@@ -61095,7 +61095,7 @@
         <v>7594</v>
       </c>
       <c r="B7594">
-        <v>5.957255002869166</v>
+        <v>5.957255002869165</v>
       </c>
     </row>
     <row r="7595" spans="1:2">
@@ -61143,7 +61143,7 @@
         <v>7600</v>
       </c>
       <c r="B7600">
-        <v>5.813386429990311</v>
+        <v>5.81338642999031</v>
       </c>
     </row>
     <row r="7601" spans="1:2">
@@ -61207,7 +61207,7 @@
         <v>7608</v>
       </c>
       <c r="B7608">
-        <v>42.17761159998617</v>
+        <v>42.17761159998616</v>
       </c>
     </row>
     <row r="7609" spans="1:2">
@@ -61215,7 +61215,7 @@
         <v>7609</v>
       </c>
       <c r="B7609">
-        <v>50.20013821230184</v>
+        <v>50.20013821230183</v>
       </c>
     </row>
     <row r="7610" spans="1:2">
@@ -61223,7 +61223,7 @@
         <v>7610</v>
       </c>
       <c r="B7610">
-        <v>52.7964545438027</v>
+        <v>52.79645454380269</v>
       </c>
     </row>
     <row r="7611" spans="1:2">
@@ -61407,7 +61407,7 @@
         <v>7633</v>
       </c>
       <c r="B7633">
-        <v>44.8196470135182</v>
+        <v>44.81964701351819</v>
       </c>
     </row>
     <row r="7634" spans="1:2">
@@ -61447,7 +61447,7 @@
         <v>7638</v>
       </c>
       <c r="B7638">
-        <v>62.91854207708824</v>
+        <v>62.91854207708823</v>
       </c>
     </row>
     <row r="7639" spans="1:2">
@@ -61551,7 +61551,7 @@
         <v>7651</v>
       </c>
       <c r="B7651">
-        <v>22.58185620645331</v>
+        <v>22.5818562064533</v>
       </c>
     </row>
     <row r="7652" spans="1:2">
@@ -61647,7 +61647,7 @@
         <v>7663</v>
       </c>
       <c r="B7663">
-        <v>48.61843381664656</v>
+        <v>48.61843381664655</v>
       </c>
     </row>
     <row r="7664" spans="1:2">
@@ -61895,7 +61895,7 @@
         <v>7694</v>
       </c>
       <c r="B7694">
-        <v>1.155980612764651</v>
+        <v>1.15598061276465</v>
       </c>
     </row>
     <row r="7695" spans="1:2">
@@ -61927,7 +61927,7 @@
         <v>7698</v>
       </c>
       <c r="B7698">
-        <v>0.8068509458281632</v>
+        <v>0.8068509458281631</v>
       </c>
     </row>
     <row r="7699" spans="1:2">
@@ -62127,7 +62127,7 @@
         <v>7723</v>
       </c>
       <c r="B7723">
-        <v>8.335585095813716</v>
+        <v>8.335585095813714</v>
       </c>
     </row>
     <row r="7724" spans="1:2">
@@ -62143,7 +62143,7 @@
         <v>7725</v>
       </c>
       <c r="B7725">
-        <v>4.500281641268154</v>
+        <v>4.500281641268153</v>
       </c>
     </row>
     <row r="7726" spans="1:2">
@@ -62199,7 +62199,7 @@
         <v>7732</v>
       </c>
       <c r="B7732">
-        <v>30.3316802172946</v>
+        <v>30.33168021729459</v>
       </c>
     </row>
     <row r="7733" spans="1:2">
@@ -62263,7 +62263,7 @@
         <v>7740</v>
       </c>
       <c r="B7740">
-        <v>4.778581899580968</v>
+        <v>4.778581899580967</v>
       </c>
     </row>
     <row r="7741" spans="1:2">
@@ -62351,7 +62351,7 @@
         <v>7751</v>
       </c>
       <c r="B7751">
-        <v>3.730266794289336</v>
+        <v>3.730266794289335</v>
       </c>
     </row>
     <row r="7752" spans="1:2">
@@ -62407,7 +62407,7 @@
         <v>7758</v>
       </c>
       <c r="B7758">
-        <v>21.9362793224901</v>
+        <v>21.93627932249009</v>
       </c>
     </row>
     <row r="7759" spans="1:2">
@@ -62511,7 +62511,7 @@
         <v>7771</v>
       </c>
       <c r="B7771">
-        <v>0.8062208430950413</v>
+        <v>0.8062208430950412</v>
       </c>
     </row>
     <row r="7772" spans="1:2">
@@ -62567,7 +62567,7 @@
         <v>7778</v>
       </c>
       <c r="B7778">
-        <v>17.04196366974177</v>
+        <v>17.04196366974176</v>
       </c>
     </row>
     <row r="7779" spans="1:2">
@@ -62591,7 +62591,7 @@
         <v>7781</v>
       </c>
       <c r="B7781">
-        <v>35.40620525171579</v>
+        <v>35.40620525171578</v>
       </c>
     </row>
     <row r="7782" spans="1:2">
@@ -62647,7 +62647,7 @@
         <v>7788</v>
       </c>
       <c r="B7788">
-        <v>2.549272568374939</v>
+        <v>2.549272568374938</v>
       </c>
     </row>
     <row r="7789" spans="1:2">
@@ -62671,7 +62671,7 @@
         <v>7791</v>
       </c>
       <c r="B7791">
-        <v>0.8397540313386724</v>
+        <v>0.8397540313386723</v>
       </c>
     </row>
     <row r="7792" spans="1:2">
@@ -62703,7 +62703,7 @@
         <v>7795</v>
       </c>
       <c r="B7795">
-        <v>9.53749873246776</v>
+        <v>9.537498732467755</v>
       </c>
     </row>
     <row r="7796" spans="1:2">
@@ -62743,7 +62743,7 @@
         <v>7800</v>
       </c>
       <c r="B7800">
-        <v>8.552750735461773</v>
+        <v>8.552750735461771</v>
       </c>
     </row>
     <row r="7801" spans="1:2">
@@ -62767,7 +62767,7 @@
         <v>7803</v>
       </c>
       <c r="B7803">
-        <v>23.1185865066577</v>
+        <v>23.11858650665769</v>
       </c>
     </row>
     <row r="7804" spans="1:2">
@@ -62807,7 +62807,7 @@
         <v>7808</v>
       </c>
       <c r="B7808">
-        <v>0.3495516892321598</v>
+        <v>0.3495516892321597</v>
       </c>
     </row>
     <row r="7809" spans="1:2">
@@ -62967,7 +62967,7 @@
         <v>7828</v>
       </c>
       <c r="B7828">
-        <v>2.738007386562459</v>
+        <v>2.738007386562458</v>
       </c>
     </row>
     <row r="7829" spans="1:2">
@@ -63511,7 +63511,7 @@
         <v>7896</v>
       </c>
       <c r="B7896">
-        <v>0.9965880669679048</v>
+        <v>0.9965880669679046</v>
       </c>
     </row>
     <row r="7897" spans="1:2">
@@ -63639,7 +63639,7 @@
         <v>7912</v>
       </c>
       <c r="B7912">
-        <v>0.8353843421522317</v>
+        <v>0.8353843421522316</v>
       </c>
     </row>
     <row r="7913" spans="1:2">
@@ -63671,7 +63671,7 @@
         <v>7916</v>
       </c>
       <c r="B7916">
-        <v>9.777787677066195</v>
+        <v>9.777787677066192</v>
       </c>
     </row>
     <row r="7917" spans="1:2">
@@ -63679,7 +63679,7 @@
         <v>7917</v>
       </c>
       <c r="B7917">
-        <v>5.919302303362522</v>
+        <v>5.919302303362521</v>
       </c>
     </row>
     <row r="7918" spans="1:2">
@@ -63695,7 +63695,7 @@
         <v>7919</v>
       </c>
       <c r="B7919">
-        <v>7.996560518290272</v>
+        <v>7.996560518290271</v>
       </c>
     </row>
     <row r="7920" spans="1:2">
@@ -63767,7 +63767,7 @@
         <v>7928</v>
       </c>
       <c r="B7928">
-        <v>0.9724214291198902</v>
+        <v>0.97242142911989</v>
       </c>
     </row>
     <row r="7929" spans="1:2">
@@ -63807,7 +63807,7 @@
         <v>7933</v>
       </c>
       <c r="B7933">
-        <v>0.9618063960995764</v>
+        <v>0.9618063960995762</v>
       </c>
     </row>
     <row r="7934" spans="1:2">
@@ -64095,7 +64095,7 @@
         <v>7969</v>
       </c>
       <c r="B7969">
-        <v>0.1228011612646836</v>
+        <v>0.1228011612646835</v>
       </c>
     </row>
     <row r="7970" spans="1:2">
@@ -64359,7 +64359,7 @@
         <v>8002</v>
       </c>
       <c r="B8002">
-        <v>0.49328544943323</v>
+        <v>0.4932854494332299</v>
       </c>
     </row>
     <row r="8003" spans="1:2">
@@ -64479,7 +64479,7 @@
         <v>8017</v>
       </c>
       <c r="B8017">
-        <v>26.54420595625857</v>
+        <v>26.54420595625856</v>
       </c>
     </row>
     <row r="8018" spans="1:2">
@@ -64495,7 +64495,7 @@
         <v>8019</v>
       </c>
       <c r="B8019">
-        <v>40.0097651270082</v>
+        <v>40.00976512700819</v>
       </c>
     </row>
     <row r="8020" spans="1:2">
@@ -64623,7 +64623,7 @@
         <v>8035</v>
       </c>
       <c r="B8035">
-        <v>33.98715528251756</v>
+        <v>33.98715528251755</v>
       </c>
     </row>
     <row r="8036" spans="1:2">
@@ -64687,7 +64687,7 @@
         <v>8043</v>
       </c>
       <c r="B8043">
-        <v>56.45251575110298</v>
+        <v>56.45251575110297</v>
       </c>
     </row>
     <row r="8044" spans="1:2">
@@ -64695,7 +64695,7 @@
         <v>8044</v>
       </c>
       <c r="B8044">
-        <v>61.01006347332556</v>
+        <v>61.01006347332555</v>
       </c>
     </row>
     <row r="8045" spans="1:2">
@@ -64759,7 +64759,7 @@
         <v>8052</v>
       </c>
       <c r="B8052">
-        <v>4.547436771388765</v>
+        <v>4.547436771388764</v>
       </c>
     </row>
     <row r="8053" spans="1:2">
@@ -64879,7 +64879,7 @@
         <v>8067</v>
       </c>
       <c r="B8067">
-        <v>45.57899407468975</v>
+        <v>45.57899407468974</v>
       </c>
     </row>
     <row r="8068" spans="1:2">
@@ -64919,7 +64919,7 @@
         <v>8072</v>
       </c>
       <c r="B8072">
-        <v>5.380579120095237</v>
+        <v>5.380579120095236</v>
       </c>
     </row>
     <row r="8073" spans="1:2">
@@ -64999,7 +64999,7 @@
         <v>8082</v>
       </c>
       <c r="B8082">
-        <v>0.7469237798426913</v>
+        <v>0.7469237798426912</v>
       </c>
     </row>
     <row r="8083" spans="1:2">
@@ -65015,7 +65015,7 @@
         <v>8084</v>
       </c>
       <c r="B8084">
-        <v>17.21261893555427</v>
+        <v>17.21261893555426</v>
       </c>
     </row>
     <row r="8085" spans="1:2">
@@ -65071,7 +65071,7 @@
         <v>8091</v>
       </c>
       <c r="B8091">
-        <v>38.55994269875053</v>
+        <v>38.55994269875052</v>
       </c>
     </row>
     <row r="8092" spans="1:2">
@@ -65135,7 +65135,7 @@
         <v>8099</v>
       </c>
       <c r="B8099">
-        <v>7.595932408440213</v>
+        <v>7.595932408440212</v>
       </c>
     </row>
     <row r="8100" spans="1:2">
@@ -65159,7 +65159,7 @@
         <v>8102</v>
       </c>
       <c r="B8102">
-        <v>3.111857595610031</v>
+        <v>3.11185759561003</v>
       </c>
     </row>
     <row r="8103" spans="1:2">
@@ -65167,7 +65167,7 @@
         <v>8103</v>
       </c>
       <c r="B8103">
-        <v>1.645740417602785</v>
+        <v>1.645740417602784</v>
       </c>
     </row>
     <row r="8104" spans="1:2">
@@ -65295,7 +65295,7 @@
         <v>8119</v>
       </c>
       <c r="B8119">
-        <v>46.12176163829056</v>
+        <v>46.12176163829055</v>
       </c>
     </row>
     <row r="8120" spans="1:2">
@@ -65311,7 +65311,7 @@
         <v>8121</v>
       </c>
       <c r="B8121">
-        <v>6.3904433051145</v>
+        <v>6.390443305114499</v>
       </c>
     </row>
     <row r="8122" spans="1:2">
@@ -65439,7 +65439,7 @@
         <v>8137</v>
       </c>
       <c r="B8137">
-        <v>36.64179275071202</v>
+        <v>36.64179275071201</v>
       </c>
     </row>
     <row r="8138" spans="1:2">
@@ -65463,7 +65463,7 @@
         <v>8140</v>
       </c>
       <c r="B8140">
-        <v>54.3529548301331</v>
+        <v>54.35295483013309</v>
       </c>
     </row>
     <row r="8141" spans="1:2">
@@ -65471,7 +65471,7 @@
         <v>8141</v>
       </c>
       <c r="B8141">
-        <v>59.13997717562752</v>
+        <v>59.13997717562751</v>
       </c>
     </row>
     <row r="8142" spans="1:2">
@@ -65719,7 +65719,7 @@
         <v>8172</v>
       </c>
       <c r="B8172">
-        <v>13.89332565877974</v>
+        <v>13.89332565877973</v>
       </c>
     </row>
     <row r="8173" spans="1:2">
@@ -65815,7 +65815,7 @@
         <v>8184</v>
       </c>
       <c r="B8184">
-        <v>67.67830881598715</v>
+        <v>67.67830881598714</v>
       </c>
     </row>
     <row r="8185" spans="1:2">
@@ -65911,7 +65911,7 @@
         <v>8196</v>
       </c>
       <c r="B8196">
-        <v>40.53436228621201</v>
+        <v>40.534362286212</v>
       </c>
     </row>
     <row r="8197" spans="1:2">
@@ -65927,7 +65927,7 @@
         <v>8198</v>
       </c>
       <c r="B8198">
-        <v>32.54759034061303</v>
+        <v>32.54759034061302</v>
       </c>
     </row>
     <row r="8199" spans="1:2">
@@ -66015,7 +66015,7 @@
         <v>8209</v>
       </c>
       <c r="B8209">
-        <v>70.76874291867104</v>
+        <v>70.76874291867102</v>
       </c>
     </row>
     <row r="8210" spans="1:2">
@@ -66063,7 +66063,7 @@
         <v>8215</v>
       </c>
       <c r="B8215">
-        <v>80.36857786106206</v>
+        <v>80.36857786106205</v>
       </c>
     </row>
     <row r="8216" spans="1:2">
@@ -66111,7 +66111,7 @@
         <v>8221</v>
       </c>
       <c r="B8221">
-        <v>9.059675711034302</v>
+        <v>9.0596757110343</v>
       </c>
     </row>
     <row r="8222" spans="1:2">
@@ -66159,7 +66159,7 @@
         <v>8227</v>
       </c>
       <c r="B8227">
-        <v>70.86545636142928</v>
+        <v>70.86545636142927</v>
       </c>
     </row>
     <row r="8228" spans="1:2">
@@ -66215,7 +66215,7 @@
         <v>8234</v>
       </c>
       <c r="B8234">
-        <v>65.85423467135894</v>
+        <v>65.85423467135892</v>
       </c>
     </row>
     <row r="8235" spans="1:2">
@@ -66231,7 +66231,7 @@
         <v>8236</v>
       </c>
       <c r="B8236">
-        <v>71.16409574982519</v>
+        <v>71.16409574982518</v>
       </c>
     </row>
     <row r="8237" spans="1:2">
@@ -66239,7 +66239,7 @@
         <v>8237</v>
       </c>
       <c r="B8237">
-        <v>73.20738703137209</v>
+        <v>73.20738703137208</v>
       </c>
     </row>
     <row r="8238" spans="1:2">
@@ -66247,7 +66247,7 @@
         <v>8238</v>
       </c>
       <c r="B8238">
-        <v>71.87684451584958</v>
+        <v>71.87684451584957</v>
       </c>
     </row>
     <row r="8239" spans="1:2">
@@ -66279,7 +66279,7 @@
         <v>8242</v>
       </c>
       <c r="B8242">
-        <v>14.39409614254038</v>
+        <v>14.39409614254037</v>
       </c>
     </row>
     <row r="8243" spans="1:2">
@@ -66319,7 +66319,7 @@
         <v>8247</v>
       </c>
       <c r="B8247">
-        <v>6.999855222906902</v>
+        <v>6.999855222906901</v>
       </c>
     </row>
     <row r="8248" spans="1:2">
@@ -66351,7 +66351,7 @@
         <v>8251</v>
       </c>
       <c r="B8251">
-        <v>54.29727133278745</v>
+        <v>54.29727133278744</v>
       </c>
     </row>
     <row r="8252" spans="1:2">
@@ -66375,7 +66375,7 @@
         <v>8254</v>
       </c>
       <c r="B8254">
-        <v>35.24560232252937</v>
+        <v>35.24560232252936</v>
       </c>
     </row>
     <row r="8255" spans="1:2">
@@ -66495,7 +66495,7 @@
         <v>8269</v>
       </c>
       <c r="B8269">
-        <v>4.300934720770707</v>
+        <v>4.300934720770706</v>
       </c>
     </row>
     <row r="8270" spans="1:2">
@@ -66511,7 +66511,7 @@
         <v>8271</v>
       </c>
       <c r="B8271">
-        <v>2.66526129334594</v>
+        <v>2.665261293345939</v>
       </c>
     </row>
     <row r="8272" spans="1:2">
@@ -66575,7 +66575,7 @@
         <v>8279</v>
       </c>
       <c r="B8279">
-        <v>32.48663156457147</v>
+        <v>32.48663156457146</v>
       </c>
     </row>
     <row r="8280" spans="1:2">
@@ -66591,7 +66591,7 @@
         <v>8281</v>
       </c>
       <c r="B8281">
-        <v>47.38782852530757</v>
+        <v>47.38782852530756</v>
       </c>
     </row>
     <row r="8282" spans="1:2">
@@ -66607,7 +66607,7 @@
         <v>8283</v>
       </c>
       <c r="B8283">
-        <v>60.61529678424873</v>
+        <v>60.61529678424872</v>
       </c>
     </row>
     <row r="8284" spans="1:2">
@@ -66687,7 +66687,7 @@
         <v>8293</v>
       </c>
       <c r="B8293">
-        <v>27.67232430537768</v>
+        <v>27.67232430537767</v>
       </c>
     </row>
     <row r="8294" spans="1:2">
@@ -66711,7 +66711,7 @@
         <v>8296</v>
       </c>
       <c r="B8296">
-        <v>20.41843510615913</v>
+        <v>20.41843510615912</v>
       </c>
     </row>
     <row r="8297" spans="1:2">
@@ -66903,7 +66903,7 @@
         <v>8320</v>
       </c>
       <c r="B8320">
-        <v>28.24372490945571</v>
+        <v>28.2437249094557</v>
       </c>
     </row>
     <row r="8321" spans="1:2">
@@ -66927,7 +66927,7 @@
         <v>8323</v>
       </c>
       <c r="B8323">
-        <v>83.85583015009341</v>
+        <v>83.8558301500934</v>
       </c>
     </row>
     <row r="8324" spans="1:2">
@@ -66967,7 +66967,7 @@
         <v>8328</v>
       </c>
       <c r="B8328">
-        <v>67.23254776618325</v>
+        <v>67.23254776618323</v>
       </c>
     </row>
     <row r="8329" spans="1:2">
@@ -67095,7 +67095,7 @@
         <v>8344</v>
       </c>
       <c r="B8344">
-        <v>8.514680807539664</v>
+        <v>8.514680807539662</v>
       </c>
     </row>
     <row r="8345" spans="1:2">
@@ -67159,7 +67159,7 @@
         <v>8352</v>
       </c>
       <c r="B8352">
-        <v>47.08215543198379</v>
+        <v>47.08215543198378</v>
       </c>
     </row>
     <row r="8353" spans="1:2">
@@ -67191,7 +67191,7 @@
         <v>8356</v>
       </c>
       <c r="B8356">
-        <v>61.75651540879601</v>
+        <v>61.756515408796</v>
       </c>
     </row>
     <row r="8357" spans="1:2">
@@ -67223,7 +67223,7 @@
         <v>8360</v>
       </c>
       <c r="B8360">
-        <v>11.36183664103077</v>
+        <v>11.36183664103076</v>
       </c>
     </row>
     <row r="8361" spans="1:2">
@@ -67231,7 +67231,7 @@
         <v>8361</v>
       </c>
       <c r="B8361">
-        <v>8.97840711201351</v>
+        <v>8.978407112013508</v>
       </c>
     </row>
     <row r="8362" spans="1:2">
@@ -67335,7 +67335,7 @@
         <v>8374</v>
       </c>
       <c r="B8374">
-        <v>28.37798075226647</v>
+        <v>28.37798075226646</v>
       </c>
     </row>
     <row r="8375" spans="1:2">
@@ -67399,7 +67399,7 @@
         <v>8382</v>
       </c>
       <c r="B8382">
-        <v>61.65687125565115</v>
+        <v>61.65687125565114</v>
       </c>
     </row>
     <row r="8383" spans="1:2">
@@ -67487,7 +67487,7 @@
         <v>8393</v>
       </c>
       <c r="B8393">
-        <v>7.079980844876914</v>
+        <v>7.079980844876913</v>
       </c>
     </row>
     <row r="8394" spans="1:2">
@@ -67527,7 +67527,7 @@
         <v>8398</v>
       </c>
       <c r="B8398">
-        <v>31.16370889605416</v>
+        <v>31.16370889605415</v>
       </c>
     </row>
     <row r="8399" spans="1:2">
@@ -67559,7 +67559,7 @@
         <v>8402</v>
       </c>
       <c r="B8402">
-        <v>40.88340989325767</v>
+        <v>40.88340989325766</v>
       </c>
     </row>
     <row r="8403" spans="1:2">
@@ -67567,7 +67567,7 @@
         <v>8403</v>
       </c>
       <c r="B8403">
-        <v>44.4527220731142</v>
+        <v>44.45272207311419</v>
       </c>
     </row>
     <row r="8404" spans="1:2">
@@ -67607,7 +67607,7 @@
         <v>8408</v>
       </c>
       <c r="B8408">
-        <v>2.566367402060055</v>
+        <v>2.566367402060054</v>
       </c>
     </row>
     <row r="8409" spans="1:2">
@@ -67647,7 +67647,7 @@
         <v>8413</v>
       </c>
       <c r="B8413">
-        <v>2.558486721830452</v>
+        <v>2.558486721830451</v>
       </c>
     </row>
     <row r="8414" spans="1:2">
@@ -67703,7 +67703,7 @@
         <v>8420</v>
       </c>
       <c r="B8420">
-        <v>28.97042385692038</v>
+        <v>28.97042385692037</v>
       </c>
     </row>
     <row r="8421" spans="1:2">
@@ -67903,7 +67903,7 @@
         <v>8445</v>
       </c>
       <c r="B8445">
-        <v>14.17423424933664</v>
+        <v>14.17423424933663</v>
       </c>
     </row>
     <row r="8446" spans="1:2">
@@ -67983,7 +67983,7 @@
         <v>8455</v>
       </c>
       <c r="B8455">
-        <v>44.55969300222559</v>
+        <v>44.55969300222558</v>
       </c>
     </row>
     <row r="8456" spans="1:2">
@@ -67999,7 +67999,7 @@
         <v>8457</v>
       </c>
       <c r="B8457">
-        <v>5.287411836904796</v>
+        <v>5.287411836904795</v>
       </c>
     </row>
     <row r="8458" spans="1:2">
@@ -68063,7 +68063,7 @@
         <v>8465</v>
       </c>
       <c r="B8465">
-        <v>4.215621741416389</v>
+        <v>4.215621741416388</v>
       </c>
     </row>
     <row r="8466" spans="1:2">
@@ -68167,7 +68167,7 @@
         <v>8478</v>
       </c>
       <c r="B8478">
-        <v>61.0021505552817</v>
+        <v>61.00215055528169</v>
       </c>
     </row>
     <row r="8479" spans="1:2">
@@ -68351,7 +68351,7 @@
         <v>8501</v>
       </c>
       <c r="B8501">
-        <v>75.19968395219192</v>
+        <v>75.1996839521919</v>
       </c>
     </row>
     <row r="8502" spans="1:2">
@@ -68463,7 +68463,7 @@
         <v>8515</v>
       </c>
       <c r="B8515">
-        <v>74.93943686986064</v>
+        <v>74.93943686986063</v>
       </c>
     </row>
     <row r="8516" spans="1:2">
@@ -68663,7 +68663,7 @@
         <v>8540</v>
       </c>
       <c r="B8540">
-        <v>67.70937434608526</v>
+        <v>67.70937434608524</v>
       </c>
     </row>
     <row r="8541" spans="1:2">
@@ -68695,7 +68695,7 @@
         <v>8544</v>
       </c>
       <c r="B8544">
-        <v>68.47839275153262</v>
+        <v>68.47839275153261</v>
       </c>
     </row>
     <row r="8545" spans="1:2">
@@ -68711,7 +68711,7 @@
         <v>8546</v>
       </c>
       <c r="B8546">
-        <v>76.10644574581012</v>
+        <v>76.10644574581011</v>
       </c>
     </row>
     <row r="8547" spans="1:2">
@@ -68719,7 +68719,7 @@
         <v>8547</v>
       </c>
       <c r="B8547">
-        <v>81.8846343440572</v>
+        <v>81.88463434405719</v>
       </c>
     </row>
     <row r="8548" spans="1:2">
@@ -68727,7 +68727,7 @@
         <v>8548</v>
       </c>
       <c r="B8548">
-        <v>84.75321367047445</v>
+        <v>84.75321367047444</v>
       </c>
     </row>
     <row r="8549" spans="1:2">
@@ -68863,7 +68863,7 @@
         <v>8565</v>
       </c>
       <c r="B8565">
-        <v>64.80709185022195</v>
+        <v>64.80709185022194</v>
       </c>
     </row>
     <row r="8566" spans="1:2">
@@ -68871,7 +68871,7 @@
         <v>8566</v>
       </c>
       <c r="B8566">
-        <v>64.72092896485552</v>
+        <v>64.7209289648555</v>
       </c>
     </row>
     <row r="8567" spans="1:2">
@@ -68879,7 +68879,7 @@
         <v>8567</v>
       </c>
       <c r="B8567">
-        <v>67.50803454252491</v>
+        <v>67.5080345425249</v>
       </c>
     </row>
     <row r="8568" spans="1:2">
@@ -68903,7 +68903,7 @@
         <v>8570</v>
       </c>
       <c r="B8570">
-        <v>78.41467324630688</v>
+        <v>78.41467324630686</v>
       </c>
     </row>
     <row r="8571" spans="1:2">
@@ -68983,7 +68983,7 @@
         <v>8580</v>
       </c>
       <c r="B8580">
-        <v>44.50107879449332</v>
+        <v>44.50107879449331</v>
       </c>
     </row>
     <row r="8581" spans="1:2">
@@ -69039,7 +69039,7 @@
         <v>8587</v>
       </c>
       <c r="B8587">
-        <v>84.4624872001224</v>
+        <v>84.46248720012238</v>
       </c>
     </row>
     <row r="8588" spans="1:2">
@@ -69047,7 +69047,7 @@
         <v>8588</v>
       </c>
       <c r="B8588">
-        <v>70.66939183656484</v>
+        <v>70.66939183656483</v>
       </c>
     </row>
     <row r="8589" spans="1:2">
@@ -69087,7 +69087,7 @@
         <v>8593</v>
       </c>
       <c r="B8593">
-        <v>74.02212451885063</v>
+        <v>74.02212451885062</v>
       </c>
     </row>
     <row r="8594" spans="1:2">
@@ -69135,7 +69135,7 @@
         <v>8599</v>
       </c>
       <c r="B8599">
-        <v>86.89321839477959</v>
+        <v>86.89321839477958</v>
       </c>
     </row>
     <row r="8600" spans="1:2">
@@ -69263,7 +69263,7 @@
         <v>8615</v>
       </c>
       <c r="B8615">
-        <v>52.25896225889779</v>
+        <v>52.25896225889778</v>
       </c>
     </row>
     <row r="8616" spans="1:2">
@@ -69279,7 +69279,7 @@
         <v>8617</v>
       </c>
       <c r="B8617">
-        <v>62.65096821879043</v>
+        <v>62.65096821879042</v>
       </c>
     </row>
     <row r="8618" spans="1:2">
@@ -69407,7 +69407,7 @@
         <v>8633</v>
       </c>
       <c r="B8633">
-        <v>14.81981113329985</v>
+        <v>14.81981113329984</v>
       </c>
     </row>
     <row r="8634" spans="1:2">
@@ -69479,7 +69479,7 @@
         <v>8642</v>
       </c>
       <c r="B8642">
-        <v>53.1633794842067</v>
+        <v>53.16337948420669</v>
       </c>
     </row>
     <row r="8643" spans="1:2">
@@ -69791,7 +69791,7 @@
         <v>8681</v>
       </c>
       <c r="B8681">
-        <v>5.974868572292713</v>
+        <v>5.974868572292712</v>
       </c>
     </row>
     <row r="8682" spans="1:2">
@@ -69799,7 +69799,7 @@
         <v>8682</v>
       </c>
       <c r="B8682">
-        <v>5.484414189092951</v>
+        <v>5.48441418909295</v>
       </c>
     </row>
     <row r="8683" spans="1:2">
@@ -69823,7 +69823,7 @@
         <v>8685</v>
       </c>
       <c r="B8685">
-        <v>19.43966575834183</v>
+        <v>19.43966575834182</v>
       </c>
     </row>
     <row r="8686" spans="1:2">
@@ -69863,7 +69863,7 @@
         <v>8690</v>
       </c>
       <c r="B8690">
-        <v>33.79871060465831</v>
+        <v>33.7987106046583</v>
       </c>
     </row>
     <row r="8691" spans="1:2">
@@ -69887,7 +69887,7 @@
         <v>8693</v>
       </c>
       <c r="B8693">
-        <v>41.39306042948975</v>
+        <v>41.39306042948974</v>
       </c>
     </row>
     <row r="8694" spans="1:2">
@@ -69895,7 +69895,7 @@
         <v>8694</v>
       </c>
       <c r="B8694">
-        <v>43.23501190747631</v>
+        <v>43.2350119074763</v>
       </c>
     </row>
     <row r="8695" spans="1:2">
@@ -69903,7 +69903,7 @@
         <v>8695</v>
       </c>
       <c r="B8695">
-        <v>43.28366169989409</v>
+        <v>43.28366169989408</v>
       </c>
     </row>
     <row r="8696" spans="1:2">
@@ -70095,7 +70095,7 @@
         <v>8719</v>
       </c>
       <c r="B8719">
-        <v>35.79598973313538</v>
+        <v>35.79598973313537</v>
       </c>
     </row>
     <row r="8720" spans="1:2">
@@ -70111,7 +70111,7 @@
         <v>8721</v>
       </c>
       <c r="B8721">
-        <v>1.542210142485278</v>
+        <v>1.542210142485277</v>
       </c>
     </row>
     <row r="8722" spans="1:2">
@@ -70151,7 +70151,7 @@
         <v>8726</v>
       </c>
       <c r="B8726">
-        <v>0.3795944014053343</v>
+        <v>0.3795944014053342</v>
       </c>
     </row>
     <row r="8727" spans="1:2">
@@ -70279,7 +70279,7 @@
         <v>8742</v>
       </c>
       <c r="B8742">
-        <v>49.22978000329413</v>
+        <v>49.22978000329412</v>
       </c>
     </row>
     <row r="8743" spans="1:2">
@@ -70295,7 +70295,7 @@
         <v>8744</v>
       </c>
       <c r="B8744">
-        <v>4.292025361195402</v>
+        <v>4.292025361195401</v>
       </c>
     </row>
     <row r="8745" spans="1:2">
@@ -70383,7 +70383,7 @@
         <v>8755</v>
       </c>
       <c r="B8755">
-        <v>39.98954322534057</v>
+        <v>39.98954322534056</v>
       </c>
     </row>
     <row r="8756" spans="1:2">
